--- a/2024/Palestrantes.xlsx
+++ b/2024/Palestrantes.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Simposios/Simposio Paradesportivo Carioca 2024/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D636D-B75D-C04F-BF04-D0F6B628E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143E9F1-A6A3-CB4F-93FA-1535CFDDB7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="10" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="5" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="4" sheetId="8" r:id="rId4"/>
-    <sheet name="5" sheetId="4" r:id="rId5"/>
-    <sheet name="6" sheetId="5" r:id="rId6"/>
-    <sheet name="7" sheetId="9" r:id="rId7"/>
-    <sheet name="8" sheetId="10" r:id="rId8"/>
-    <sheet name="9" sheetId="12" r:id="rId9"/>
-    <sheet name="10" sheetId="13" r:id="rId10"/>
-    <sheet name="11" sheetId="14" r:id="rId11"/>
+    <sheet name="4" sheetId="15" r:id="rId4"/>
+    <sheet name="5" sheetId="8" r:id="rId5"/>
+    <sheet name="6" sheetId="4" r:id="rId6"/>
+    <sheet name="7" sheetId="5" r:id="rId7"/>
+    <sheet name="8" sheetId="9" r:id="rId8"/>
+    <sheet name="9" sheetId="10" r:id="rId9"/>
+    <sheet name="10" sheetId="12" r:id="rId10"/>
+    <sheet name="11" sheetId="13" r:id="rId11"/>
+    <sheet name="12" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
   <si>
     <t>Doutor en Ciências de La Salud – Universidad Católica San Antônio de Múrcia – España</t>
   </si>
@@ -108,9 +109,6 @@
     <t>Elizabeth Canejo.png</t>
   </si>
   <si>
-    <t>Elizabeth Canejo</t>
-  </si>
-  <si>
     <t>Fundação de Apoio à Escola Técnica (FAETEC)</t>
   </si>
   <si>
@@ -310,6 +308,27 @@
   </si>
   <si>
     <t>Aluna de iniciação científica do projeto Coletânea Esporte e Reabilitação</t>
+  </si>
+  <si>
+    <t>Antonio Carlos Hirsch.png</t>
+  </si>
+  <si>
+    <t>Nadador em águas abertas</t>
+  </si>
+  <si>
+    <t>Doutor em filosofia</t>
+  </si>
+  <si>
+    <t>Professor e pesquisador do Pragma/IFCS/UFRJ, na área de Filosofia Antiga. </t>
+  </si>
+  <si>
+    <t>Pratica natação em águas abertas desde 2011, recuperando-se de um acidente vascular cerebral ocorrido em 2008.</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Antônio Carlos Hirsch</t>
+  </si>
+  <si>
+    <t>Prof. MSc. Elizabeth Canejo</t>
   </si>
 </sst>
 </file>
@@ -704,7 +723,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>16</v>
@@ -782,6 +801,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C510A5-42E7-2145-B7F3-59831D120D4C}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C02FE7-526E-6E46-9D19-957FE76187CD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -812,31 +889,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -844,11 +921,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E8534-2D9F-6040-9E73-8A26194F881C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -875,16 +952,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -923,41 +1000,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -996,31 +1073,31 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1029,6 +1106,64 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B1811B-6F4F-7F4A-97BD-B2468FF71030}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B090EF-2884-644D-BAE3-13A598CDD7D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1059,21 +1194,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1081,11 +1216,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE3CE9B-E603-B04F-A406-70377B711522}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1115,28 +1250,28 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8CB3AB-779B-8B4C-A5E5-0A52521FFD7F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1175,41 +1310,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4991FAFB-B369-9749-8B11-D17500A9247B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1248,26 +1383,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E28C4D-4426-6E4E-87CD-8F5EBE602766}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1306,99 +1441,41 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C510A5-42E7-2145-B7F3-59831D120D4C}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/2024/Palestrantes.xlsx
+++ b/2024/Palestrantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Simposios/Simposio Paradesportivo Carioca 2024/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7143E9F1-A6A3-CB4F-93FA-1535CFDDB7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E1DB9-956C-4E4E-87AB-B926C4639B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" activeTab="5" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="27620" windowHeight="16840" xr2:uid="{C54478C0-CCA3-7546-98FA-E8A47F02D2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="15" r:id="rId4"/>
     <sheet name="5" sheetId="8" r:id="rId5"/>
-    <sheet name="6" sheetId="4" r:id="rId6"/>
-    <sheet name="7" sheetId="5" r:id="rId7"/>
-    <sheet name="8" sheetId="9" r:id="rId8"/>
-    <sheet name="9" sheetId="10" r:id="rId9"/>
-    <sheet name="10" sheetId="12" r:id="rId10"/>
-    <sheet name="11" sheetId="13" r:id="rId11"/>
-    <sheet name="12" sheetId="14" r:id="rId12"/>
+    <sheet name="6" sheetId="16" r:id="rId6"/>
+    <sheet name="7" sheetId="4" r:id="rId7"/>
+    <sheet name="8" sheetId="5" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="12" r:id="rId11"/>
+    <sheet name="12" sheetId="13" r:id="rId12"/>
+    <sheet name="13" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="98">
   <si>
     <t>Doutor en Ciências de La Salud – Universidad Católica San Antônio de Múrcia – España</t>
   </si>
@@ -301,12 +302,6 @@
     <t>Thamires Holmes.png</t>
   </si>
   <si>
-    <t>Prof. Thamíres Holmes</t>
-  </si>
-  <si>
-    <t>Docente do curso de fisioterapia – UNISUAM</t>
-  </si>
-  <si>
     <t>Aluna de iniciação científica do projeto Coletânea Esporte e Reabilitação</t>
   </si>
   <si>
@@ -329,6 +324,24 @@
   </si>
   <si>
     <t>Prof. MSc. Elizabeth Canejo</t>
+  </si>
+  <si>
+    <t>Discente do curso de fisioterapia – UNISUAM</t>
+  </si>
+  <si>
+    <t>Thamíres Holmes</t>
+  </si>
+  <si>
+    <t>Alvaro Souza.png</t>
+  </si>
+  <si>
+    <t>Prof. Álvaro Souza</t>
+  </si>
+  <si>
+    <t>Projeto Pedala Junto</t>
+  </si>
+  <si>
+    <t>Profissional de educação física – EEFD/ UFRJ</t>
   </si>
 </sst>
 </file>
@@ -696,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8470464-C0F3-0544-B5A2-36133E800C8D}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -801,6 +814,79 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E28C4D-4426-6E4E-87CD-8F5EBE602766}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C510A5-42E7-2145-B7F3-59831D120D4C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -858,7 +944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C02FE7-526E-6E46-9D19-957FE76187CD}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -921,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E8534-2D9F-6040-9E73-8A26194F881C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -955,13 +1041,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1136,26 +1222,26 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1217,10 +1303,58 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB999A1-AD5F-4A4D-9FC1-11E3334075CE}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE3CE9B-E603-B04F-A406-70377B711522}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1250,7 +1384,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
@@ -1279,7 +1413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8CB3AB-779B-8B4C-A5E5-0A52521FFD7F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1352,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4991FAFB-B369-9749-8B11-D17500A9247B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1408,77 +1542,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E28C4D-4426-6E4E-87CD-8F5EBE602766}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D7" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>